--- a/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Condimentos.xlsx
+++ b/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Condimentos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bicarbonato De Sodio 30gr Wally</t>
+          <t>Orégano Deliciata 08gr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 4,69</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df8f043f-4619-43cc-b1c0-6e2e5298fb93.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f6fe317-b500-47f6-8631-428f547a0030.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896398500825</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Folha De Louro Wally 5g</t>
+          <t>Bicarbonato De Sódio Deliciata 80gr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c956dbb-7f3c-4c83-9b7e-0dbfe13b0b0d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a11e5865-112e-4af4-81cf-1d2b1ec89b29.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891095604753</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Oregano Wally 10gr</t>
+          <t>Manjericão Deliciata 11gr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b94c5f86-7962-4d98-9117-5a8adec88e73.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e675413b-11a2-4b32-9389-db976626f5d5.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896398500443</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Oregano Wally 25g</t>
+          <t>Cominho Deliciata C/ Pimenta 45gr</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 9,89</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5fc2ddeb-d56f-4f70-aa4c-e3dee8acd679.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/44d22d40-ef12-4e7d-8b7c-69b7d3682fbd.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896398500436</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Paprica Doce Wally 20 Gr</t>
+          <t>Pimenta Calabresa Flocos Deliciata 15gr</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/255f2c5b-6908-41a0-bdff-c870313bfb28.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1d1dfb1e-6493-4a14-8625-be8d13fbf88c.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896046581152</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bicarbonato De Sódio Deliciata 80gr</t>
+          <t>Páprica Deliciata Picante 35gr</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a11e5865-112e-4af4-81cf-1d2b1ec89b29.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96721bd2-ca02-418f-90cb-48836083038b.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896398500931</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Bicarbonato De Sodio Kisabor 500g</t>
+          <t>Erva Doce Deliciata 30gr</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ccb31eef-90cf-42da-98bb-9047eda73fc3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7668b34e-8c52-47a3-9e14-67b9d310d9d6.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896398500924</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tempero Baiano Wally 20g</t>
+          <t>Camomila Deliciata 10gr</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/902aa09c-3dd3-495f-a035-fe978617bc86.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc0e69ab-f215-49a1-a567-e0ff421f54a6.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896237500559</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Salsa Desidratada Wally 10gr</t>
+          <t>Manjericão Wally 10 Gr</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55ebeccc-565c-42ba-932c-f4589ef95d4e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cb2fe15-c972-4530-9309-76dd785db4e3.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896237502638</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Paprica Picante Wally 20 Gr</t>
+          <t>Coentro Em Pó Wally 20 Gtr</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3b37a14a-7b49-4ee6-ae0d-3982f9c90ede.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2262a820-f86b-4661-91a6-60ec55e95b9e.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896237502584</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Orégano Deliciata 08gr</t>
+          <t>Paprica Doce Wally 20 Gr</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f6fe317-b500-47f6-8631-428f547a0030.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/255f2c5b-6908-41a0-bdff-c870313bfb28.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896237502669</t>
         </is>
       </c>
     </row>
@@ -771,6 +831,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/160ea1c0-ca04-4bed-80ee-8ea967806ee4.jpg</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896237502607</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Canela Po Da China 20gr Wally</t>
+          <t>Açafrão Wally 20 Gr</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb9002bf-abc7-425a-859d-89ec20fdb614.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/86a266de-f7c9-446d-af5f-b41d27cb48f8.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896237502508</t>
         </is>
       </c>
     </row>
@@ -812,7 +882,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tempero Santo Tempero 50gr Paprica Defumada</t>
+          <t>Pimenta Do Reino Bca Moida Wally 20gr</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -822,7 +892,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75d20af0-0fad-4669-97d9-3d68f667169e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2abc18ca-4d55-49c0-8eae-4fa5a896794c.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896237502690</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Bicarbonato De Sodio Da Terrinha 500g</t>
+          <t>Pimenta Calabresa Wally 10 Gr</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96c5dc7a-df33-4f72-9a60-cbe781d73e07.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/848cafe2-13cc-40b4-862f-40d2e1c7bb8a.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896237502683</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pimenta Calabresa Wally 10 Gr</t>
+          <t>Cheiro Verde Wally 10 Gr</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/848cafe2-13cc-40b4-862f-40d2e1c7bb8a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6d573b2-62db-4cde-8694-f81fcce803a5.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896237502577</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Açafrão Wally 20 Gr</t>
+          <t>Oregano Wally 25g</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 9,89</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/86a266de-f7c9-446d-af5f-b41d27cb48f8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5fc2ddeb-d56f-4f70-aa4c-e3dee8acd679.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896237504007</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Canela Da China Casca Wally 10gr</t>
+          <t>Cravo E Canela Em Po Deliciata 30g</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/43fa5fa5-d683-4086-a18d-e5619153172a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ba5032e-a1c7-442f-bd4a-b432e6b9b51f.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896398501747</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Manjericão Wally 10 Gr</t>
+          <t>Colorifico Wally 500gr</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cb2fe15-c972-4530-9309-76dd785db4e3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/35f12305-61bf-4141-8bf2-d2a426260b1e.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7896237500412</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tempero Santo Tempero 30gr Lemon Pepper</t>
+          <t>Bicarbonato De Sodio 30gr Wally</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 4,69</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e0269434-7821-47c6-acea-0563e6ffa075.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df8f043f-4619-43cc-b1c0-6e2e5298fb93.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896237509484</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cravo Da India Deliciata 25 Gr</t>
+          <t>Canela Da China Casca Wally 10gr</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c647c990-e629-44d4-b89d-c5330a295c27.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/43fa5fa5-d683-4086-a18d-e5619153172a.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7896237500566</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Orégano Deliciata 100g</t>
+          <t>Canela Po Da China 20gr Wally</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81bb02a9-0b6b-4f50-b876-80d76dea437a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb9002bf-abc7-425a-859d-89ec20fdb614.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7896237500566</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Alecrim Wally 10 Gr</t>
+          <t>Colorifico Wally 70gr</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d05458e5-1b5a-40c8-96b0-0bef00f748a5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27858533-f8f5-4dd0-a220-f67b65040e9f.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7896237500412</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1202,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Temp Cebola Alho E Salsa Wally 20g</t>
+          <t>Cominho Em Po Wally 20gr</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1092,7 +1212,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e448bed2-85f2-4b52-81c3-a35972cfc3cf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2e6424f4-d0fd-49b1-af64-93f95a8c5f58.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7896237500627</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Colorifico Wally 500gr</t>
+          <t>Erva Doce Wally 20g</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/35f12305-61bf-4141-8bf2-d2a426260b1e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d90a9a3-ed96-4d54-87ce-032afbef80bd.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7896237500689</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Colorifico Wally 70gr</t>
+          <t>Noz Moscada Wally 10gr</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27858533-f8f5-4dd0-a220-f67b65040e9f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f09c8ffa-2534-4cfb-99b0-53b6f035a580.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7896237500702</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1298,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cheiro Verde Wally 10 Gr</t>
+          <t>Oregano Wally 10gr</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1173,7 +1308,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6d573b2-62db-4cde-8694-f81fcce803a5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b94c5f86-7962-4d98-9117-5a8adec88e73.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7896237500726</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cominho Em Po Wally 20gr</t>
+          <t>Cominho C/pimenta Wally 20gr</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2e6424f4-d0fd-49b1-af64-93f95a8c5f58.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b89ae543-2e2b-417a-acd8-ef39789aa673.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896237500627</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Pimenta Do Reino Grao Bombay 40gr</t>
+          <t>Colorifico Wally 150g</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cfd5dfe-8c5f-4798-b579-14a5fddacf64.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e197df49-d5c3-4b7e-a230-fb3efb75e066.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7896237500412</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Coentro Em Pó Wally 20 Gtr</t>
+          <t>Temp Facil Kisabor 60g Car/fg/arroz</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2262a820-f86b-4661-91a6-60ec55e95b9e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ceb8130-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7898416524813</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tempera Facil Kisabor 60g Feijao</t>
+          <t>Pimenta Do Reino Grao Bombay 40gr</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/296dae56-d9ce-4f3e-ac62-9b3107562ae3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cfd5dfe-8c5f-4798-b579-14a5fddacf64.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7896237500733</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Erva Doce Wally 20g</t>
+          <t>Bicarbonato De Sodio Kisabor 500g</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d90a9a3-ed96-4d54-87ce-032afbef80bd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ccb31eef-90cf-42da-98bb-9047eda73fc3.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7898937864443</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Lemon Pepper Bombay 40gr</t>
+          <t>Tempera Facil Kisabor 60g Feijao</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1eeb760b-deba-4d52-b17a-648869ab1f0f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/296dae56-d9ce-4f3e-ac62-9b3107562ae3.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7898416524837</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Temp Facil Kisabor 60g Car/fg/arroz</t>
+          <t>Colorífico Deliciata 500 Gr</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ceb8130-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/62745fb7-5c1e-439b-b272-7148b0ccbaa1.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896398500665</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Pimenta Calabresa Flocos Deliciata 15gr</t>
+          <t>Moedor Br Spice 50g Mix De Pimenta</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 20,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1d1dfb1e-6493-4a14-8625-be8d13fbf88c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a959e37c-2e8d-4a28-b5bf-33c950cce8a7.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7898946900569</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Pimenta Do Reino Bca Moida Wally 20gr</t>
+          <t>Orégano Br Spice 10g</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2abc18ca-4d55-49c0-8eae-4fa5a896794c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ea7a3f45-d9fc-4a4c-86af-d8a02c559ba6.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7898635644132</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Tempero Santo Tempero 30gr Oregano</t>
+          <t>Sal Parrilla Br Spice 300g Chimichurri</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c13eaeb-365d-4d7d-86a6-ff257f4448ea.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/acca1f0d-7c55-4dfe-8cad-a182c48b79c9.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7898635643524</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cravo Da India Kitano 8g</t>
+          <t>Chimichurri Br Spice Pote 70g</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc5ffde3-d4cd-4868-a4a3-eb22b8c90e0f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5e5db7c-1d17-4092-bc52-16a39623cbbe.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7898635643524</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Colorifico Wally 150g</t>
+          <t>Sal Rosa Himalaia Br Spice 500g Fino</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e197df49-d5c3-4b7e-a230-fb3efb75e066.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5f17d962-9a6d-45b0-8346-adf9ed10b45e.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7896256042375</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Pimenta Do Reino Em Grao Wally 30g</t>
+          <t>Tempero Fit Br Spice 65g Carnes</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d860eab7-a2d1-44ad-8771-5dfbc252bdd8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/26068806-6585-4992-90f0-d6c07a8550e3.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7898946481129</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Manjericão Deliciata 11gr</t>
+          <t>Tempero Fit Br Spice 75g Frango</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e675413b-11a2-4b32-9389-db976626f5d5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c708af43-9964-4646-bcbe-828bfc9b818d.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7898946900767</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Páprica Deliciata Picante 35gr</t>
+          <t>Tempero Batata Frita Heinz 80g</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96721bd2-ca02-418f-90cb-48836083038b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/10a42956-78f3-4bfb-a6b6-343024c305c8.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7898635644446</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cominho Deliciata C/ Pimenta 45gr</t>
+          <t>Sal Parrilla Br Spice 300g Completo</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/44d22d40-ef12-4e7d-8b7c-69b7d3682fbd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6671ba5-100b-425b-b479-3d8803051afc.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7898635640219</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sal Rosa Himalaia Br Spice 500g Fino</t>
+          <t>Sal Parrilla Br Spice 500g Classico</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5f17d962-9a6d-45b0-8346-adf9ed10b45e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8b3edf56-c20e-4c30-bc5c-d37d700a42d2.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7898635644286</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Gengibre Deliciata 30g</t>
+          <t>Pimenta Bico Doce Da Terrinha 140g</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eeba717d-d46e-4ced-859c-e12e93518797.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/45bf72e2-590b-4c98-a8c6-6504d0632549.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7898960982374</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Alho Frito Wally 30g Crocante</t>
+          <t>Bicarbonato De Sodio Da Terrinha 500g</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8448086d-2dfe-4260-aa81-cef0c1c68acb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96c5dc7a-df33-4f72-9a60-cbe781d73e07.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7896046581978</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Tempero Caseiro P/ Carne 30gr</t>
+          <t>Canela Em Pó Quero 50g</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e693d9e0-d87c-461d-bf08-65aa4ddca477.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/56dfe843-f776-4bb6-91ba-38c761fee1c8.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7898635644989</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1970,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Paprica Doce Bombay 5gr</t>
+          <t>Pimenta Do Reino Em Pó Quero 50g</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1740,7 +1980,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf9ed39c-8c3f-46a7-8363-accc3f4a3ed5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8304d692-f676-4bcc-815b-965e6dd3ab08.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7896046581190</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Oregano Bombay 5gr</t>
+          <t>Cominho Em Pó Quero 60g</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3cc61699-12d4-4f9e-9c7a-0d578c7809c6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bbb206ae-f525-46b3-91b3-eb53137c51c8.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7898635645023</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Tempero Wally 20g Paprica Defumada</t>
+          <t>Chimichuri Quero 12g</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe17a013-4034-4699-a66d-294132cbd123.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/01b62460-4258-4a0c-9e54-8171b04b96d4.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7898635645108</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Noz Moscada Wally 10gr</t>
+          <t>Alho Granulado Quero 30g</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f09c8ffa-2534-4cfb-99b0-53b6f035a580.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53791bc0-90d6-4def-9d06-9eb46b8420f8.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7898635644941</t>
         </is>
       </c>
     </row>
@@ -1838,7 +2098,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Pimenta Do Reino Po Bombay 30gr</t>
+          <t>Páprica Doce Quero 30g</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1848,7 +2108,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5aad12e7-35b2-4642-aee9-3907da26c0ae.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eef80ab7-79a5-4392-a1f7-014117edbfc0.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7898635645061</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Chimichurri Br Spice Pote 70g</t>
+          <t>Tempero Baiano Quero 40g</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5e5db7c-1d17-4092-bc52-16a39623cbbe.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05ee8c8d-8029-4bfc-b6b8-99ba7b414b36.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7898635645092</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Tempero Fit Santo Tempero 30gr Frango</t>
+          <t>Tempero Cebola,alho E Salsa Quero 40g</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e1fe579d-070b-4331-b201-a0fe0d55d275.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5859050-f361-4b21-bd2a-dad21776172b.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7898635645092</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Curcuma Po Bombay 40gr</t>
+          <t>Cravo Da India Quero 40g</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dbe3197a-f56a-4360-b2db-69c0be7c9a0e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34cd2ba7-7106-4d47-8fd4-4654a38b3d08.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7898635645030</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Paprica Picante Bombay 30gr</t>
+          <t>Açafrão Quero 50g</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5a969c1c-10d5-434c-9eac-f6b4e9512eac.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc7de0f5-4c16-449b-b103-267ee20c2cf2.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7898635644958</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Camomila Deliciata 10gr</t>
+          <t>Cebola Granulado Quero 50g</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc0e69ab-f215-49a1-a567-e0ff421f54a6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cdc6fb1a-f120-47d7-8dc8-b18ad2b4d717.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7898635644996</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Salsa Deliciata 08gr</t>
+          <t>Bicarbonato De Sódio Quero 80g</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7dac4156-5fc7-468d-90a9-1bc51c3472f1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c650d28b-0fce-4047-94c2-1c02eb8e63aa.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7891095604753</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2322,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Tempero Fit Santo Tempero 30gr Chimichurri Sem Pimenta</t>
+          <t>Tempero Wally 20g Chimichurry Defumado</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2037,7 +2332,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f68b4cb5-9dc8-4fdb-a239-4c78cf106b03.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7896237505776</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2354,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Orégano Da Terrinha 08g</t>
+          <t>Tempero Wally 20g Lemon Pepper</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2064,7 +2364,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1503c94c-f898-47a7-858e-ea8715f2f948.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14516e50-6bfb-427b-8003-91696e3ea084.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7896237509545</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Erva Doce Deliciata 30gr</t>
+          <t>Tempero Wally 20g Paprica Defumada</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7668b34e-8c52-47a3-9e14-67b9d310d9d6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe17a013-4034-4699-a66d-294132cbd123.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7896237509552</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Páprica Defumada Br Spice 45g</t>
+          <t>Açafrão Da Terrinha 30g</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4aa8b1d-eb50-4935-a193-e347cf4e493a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5fd4c64f-31be-4405-a9dd-e88725c86a62.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7896046580636</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Canela Em Pó Da Terrinha 20g</t>
+          <t>Alecrim Da Terrinha 06g</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 4,69</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/880dd612-e542-4435-ad15-eca26e4841d0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/67758436-f086-4a7c-947c-1be7e264a578.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7896046580643</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Canela Em Pó Quero 50g</t>
+          <t>Alho Desidratado Granulado Da Terrinha 20g</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/56dfe843-f776-4bb6-91ba-38c761fee1c8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a84ee463-78ee-4021-abc1-f8108a5a8908.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7896046580674</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Paprica Doce Em Pó Da Terrinha 15g</t>
+          <t>Bicarbonato De Sodio Da Terrinha 80g</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a50cc28b-8d50-4514-a462-dee3e72287f5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc0c3c4e-3ef0-4d50-a04e-249ca52c0e26.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7896046580711</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Alho Deliciata Em Flocos 30gr</t>
+          <t>Camomila Da Terrinha 06g</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19c45628-5685-4633-b0c4-174b9524e278.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/78c8bfc1-28c5-4d7c-859e-86df7568da20.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7896046580742</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Páprica Br Spice 45g Picante</t>
+          <t>Canela Em Casca Da Terrinha 10g</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eb8db230-5b46-4438-8346-68438ecd8c84.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ce55a10-ba70-47ec-9440-82c16bce35b3.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7896046580773</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Tempero Em Pó Br Spices 100g Lemon Pepper</t>
+          <t>Canela Em Pó Da Terrinha 20g</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/652f3ee4-b098-469a-a4ad-d0127ba70b69.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/880dd612-e542-4435-ad15-eca26e4841d0.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7896046580797</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Tempero Para Caldo Br Spice 65g Legumes</t>
+          <t>Cominho Em Pó Da Terrinha 50g</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8b422854-bdb4-4d42-92af-d04a322d6e58.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ca7a7a1-f7cb-4a2a-8c60-e276d95d18ba.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7896046580919</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Orégano Da Terrinha 100g</t>
+          <t>Curry Em Pó Da Terrinha 15g</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 4,69</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2ea521d-2827-4c69-a1cb-ba2e8351b5f6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ad9ff9b4-3095-4c09-80f7-f3d1743aa78e.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7896046580988</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Noz-moscada Moida Wally 10 Gr</t>
+          <t>Erva Doce Da Terrinha 15g</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69857d82-48bc-4f6f-b21f-6020a6043b9f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4fc8a52c-d067-455f-9136-a97b6a67267b.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7896046581008</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cravo E Canela Em Po Deliciata 30g</t>
+          <t>Noz Moscada Em Bola Da Terrinha 8g</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ba5032e-a1c7-442f-bd4a-b432e6b9b51f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b541fe3f-0a99-4f7f-88cc-b4695c220307.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7896046581091</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Curcuma Em Po Br Spices 60g</t>
+          <t>Orégano Da Terrinha 08g</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b438354a-6d22-45ca-916c-f1cbeb12b647.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1503c94c-f898-47a7-858e-ea8715f2f948.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7896046581121</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Canela Em Po Br Spices 55g</t>
+          <t>Paprica Doce Em Pó Da Terrinha 15g</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff244e5e-bfc2-4c7f-858a-b3572d138987.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a50cc28b-8d50-4514-a462-dee3e72287f5.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7896046581138</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Tempero Santo Tempero 50gr Curry</t>
+          <t>Paprica Picante Em Pó Da Terrinha 15g</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8e848c28-22c5-421f-8b55-218721752d99.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7896046581145</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Moedor Br Spice 50g Mix De Pimenta</t>
+          <t>Pimenta Com Cominho Em Pó Da Terrinha 50g</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 20,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a959e37c-2e8d-4a28-b5bf-33c950cce8a7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99c2eb13-6486-4621-8e9c-f229d757760d.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7896046580919</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Pimenta Bico Doce Da Terrinha 140g</t>
+          <t>Pimenta Calabresa Flocos Da Terrinha 15g</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/45bf72e2-590b-4c98-a8c6-6504d0632549.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c7b5b52-ab78-4b89-b3fb-18955364e8b8.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7896046581152</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2930,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Paprica Picante Em Pó Da Terrinha 15g</t>
+          <t>Pimenta Do Reino Em Pó Da Terrinha 20g</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8e848c28-22c5-421f-8b55-218721752d99.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7741e4a-a487-4e8d-9591-19e429aec328.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7896046581190</t>
         </is>
       </c>
     </row>
@@ -2567,17 +2962,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cominho C/pimenta Wally 20gr</t>
+          <t>Salsa Desidratada Da Terrinha 08g</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b89ae543-2e2b-417a-acd8-ef39789aa673.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5b890df2-46bb-4566-becd-06d79ad75796.jpg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7896046581237</t>
         </is>
       </c>
     </row>
@@ -2594,17 +2994,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Pimenta Do Reino Em Pó Da Terrinha 20g</t>
+          <t>Tempero Para Churrasco Da Terrinha 40g</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7741e4a-a487-4e8d-9591-19e429aec328.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/209a0dd4-7d29-4d80-aab7-3dad932c8cd2.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7896046581282</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Tempero Santo Tempero 30gr Paprica Picante</t>
+          <t>Tempero Para Frango Da Terrinha 50g</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cc65a05b-7a99-49b3-8d11-e9536d9aebb7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/85712007-ff06-4c2d-a417-87d93866273e.jpg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7896046581299</t>
         </is>
       </c>
     </row>
@@ -2648,17 +3058,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Sal Marinho Integral Fino Br Spice 500g</t>
+          <t>Coentro Em Pó Da Terrinha 18g</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b3d0d910-3801-4314-857e-c550a1de04ae.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f908d36-f45f-4f52-8bbd-61fa858b64eb.jpg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7896046580872</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Folha De Louro Da Terrinha 08g</t>
+          <t>Cravo Da India Da Terrinha 10g</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c4ac6ef8-b9ad-4bb9-b6b3-198eef238cdc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/114cd2ae-5717-4b26-99ad-15b0816d73f8.jpg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7898693230452</t>
         </is>
       </c>
     </row>
@@ -2702,17 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Tempero Santo Tempero 30gr Curcuma</t>
+          <t>Manjericão Da Terrinha 10g</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d22c704b-f0f9-4e0a-a426-f0b6e1cbf1bd.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7898693230469</t>
         </is>
       </c>
     </row>
@@ -2729,7 +3154,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Orégano Br Spice 10g</t>
+          <t>Orégano Da Terrinha 100g</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2739,7 +3164,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ea7a3f45-d9fc-4a4c-86af-d8a02c559ba6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2ea521d-2827-4c69-a1cb-ba2e8351b5f6.jpg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7896046581985</t>
         </is>
       </c>
     </row>
@@ -2756,17 +3186,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Paprica Picante Bombay Vd 60gr</t>
+          <t>Tempero Para Carne Da Terrinha 50g</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R$ 20,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/458b9814-764a-4448-985e-1b7555a43b8c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/919376ac-7db2-40a6-82a7-525200657671.jpg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7896046581268</t>
         </is>
       </c>
     </row>
@@ -2783,1664 +3218,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Tempero Santo Tempero 30gr Pimenta Caiena</t>
+          <t>Tempero Para Hamburguer Heinz 80g</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fee3b143-4dce-44da-9a22-c81e790d65d8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Tempero Batata Frita Heinz 80g</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/10a42956-78f3-4bfb-a6b6-343024c305c8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Alho Granulado Br Spices 55g</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/98676f55-b6c7-4fe5-8b95-c820e6f30db3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Tempero Wally 20g Lemon Pepper</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14516e50-6bfb-427b-8003-91696e3ea084.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Colorífico Deliciata 500 Gr</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/62745fb7-5c1e-439b-b272-7148b0ccbaa1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Tempero Santo Tempero 60gr Bicarbonato De Sodio</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1509169-5f0d-4329-9999-db15d64dad99.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Pimenta Calabresa Flocos Da Terrinha 15g</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c7b5b52-ab78-4b89-b3fb-18955364e8b8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Salsa Desidratada Da Terrinha 08g</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5b890df2-46bb-4566-becd-06d79ad75796.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Coquetel De Legumes Deliciata 30g</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2bf9ee83-ec70-448b-8d6b-f8187b3d677e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Tempero Santo Tempero 30gr Paprica Doce</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d85435c5-38b9-4e5d-bfec-99e304d1c26e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Sal Parrilla Br Spice 300g Chimichurri</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/acca1f0d-7c55-4dfe-8cad-a182c48b79c9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Tempero Fit Br Spice 75g Frango</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c708af43-9964-4646-bcbe-828bfc9b818d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Manjericão Da Terrinha 10g</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d22c704b-f0f9-4e0a-a426-f0b6e1cbf1bd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Coquetel Pimenta Em Po Deliciata 30g</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aef8be93-87b0-49a9-abde-934e129c91db.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Tempero Cebola,alho E Salsa Quero 40g</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5859050-f361-4b21-bd2a-dad21776172b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Tempero Wally 20g Chimichurry Defumado</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f68b4cb5-9dc8-4fdb-a239-4c78cf106b03.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Açafrão Da Terrinha 30g</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5fd4c64f-31be-4405-a9dd-e88725c86a62.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Moedor Br Spice 70g Lemon Pepper</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/44664272-2510-4801-9f42-1e1946cd1887.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Tempero Fit Br Spice 65g Carnes</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/26068806-6585-4992-90f0-d6c07a8550e3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Orégano Quero 10g</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/355b8563-60b4-4aa4-931d-d76fe1b067db.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Tempero Santo Tempero 30gr Pimenta Do Reino Grãos</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Canela Em Casca Da Terrinha 10g</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ce55a10-ba70-47ec-9440-82c16bce35b3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Chimichirri Da Terrinha 20g</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a94bf6d6-dcf0-43ba-be26-db96e4afbf37.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Tempero Para Frango Da Terrinha 50g</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/85712007-ff06-4c2d-a417-87d93866273e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Tempero Santo Tempero 30gr Pimenta Calabresa</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Tempero Santo Tempero 50gr Zhatar</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Moedor Br Spice 80g Mix Para Carnes</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5f5f3a4-d998-414c-b60d-f80f65a29c80.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Colorifico Quero 80g</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c62a496a-4fe2-47cc-a304-706601c12803.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Alecrim Da Terrinha 06g</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>R$ 4,69</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/67758436-f086-4a7c-947c-1be7e264a578.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Cominho Em Pó Da Terrinha 50g</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ca7a7a1-f7cb-4a2a-8c60-e276d95d18ba.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Tempero Baiano Em Pó Da Terrinha 50g</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/04b169be-2564-4606-b263-bdd1c4ebdc00.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Tempero Fit Br Spice 65g Completo</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd1e89e1-9957-497c-ba79-fcf2d5e7b0bf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Sal Parrilla Br Spice 300g Completo</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6671ba5-100b-425b-b479-3d8803051afc.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Chimichuri Quero 12g</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/01b62460-4258-4a0c-9e54-8171b04b96d4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Pimenta Do Reino Em Pó Quero 50g</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8304d692-f676-4bcc-815b-965e6dd3ab08.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Açafrão Quero 50g</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc7de0f5-4c16-449b-b103-267ee20c2cf2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Curry Em Pó Da Terrinha 15g</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>R$ 4,69</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ad9ff9b4-3095-4c09-80f7-f3d1743aa78e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Pimenta Com Cominho Em Pó Da Terrinha 50g</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99c2eb13-6486-4621-8e9c-f229d757760d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Tempero Para Churrasco Da Terrinha 40g</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/209a0dd4-7d29-4d80-aab7-3dad932c8cd2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Tempero Para Carne Da Terrinha 50g</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/919376ac-7db2-40a6-82a7-525200657671.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Sal Parrilla Br Spice 500g Classico</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8b3edf56-c20e-4c30-bc5c-d37d700a42d2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Páprica Doce Quero 30g</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eef80ab7-79a5-4392-a1f7-014117edbfc0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Bicarbonato De Sodio Da Terrinha 80g</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc0c3c4e-3ef0-4d50-a04e-249ca52c0e26.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Noz Moscada Em Bola Da Terrinha 8g</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b541fe3f-0a99-4f7f-88cc-b4695c220307.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Vinagrete Deliciata 30gr</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7569d67-4340-43a3-80c2-dede9383278a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Garam Masala Bombay 30gr</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Cominho Em Pó Quero 60g</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bbb206ae-f525-46b3-91b3-eb53137c51c8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Cravo Da India Quero 40g</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34cd2ba7-7106-4d47-8fd4-4654a38b3d08.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Camomila Da Terrinha 06g</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/78c8bfc1-28c5-4d7c-859e-86df7568da20.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Colorifico Da Terrinha 70g</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>R$ 7,69</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4740ffe-f90e-4720-82b0-1f423b5a2726.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Moedor Br Spice Vidro 100g Sal Marinho</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/633eaa91-97e5-498b-befa-6677768adbad.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Cebola Granulado Quero 50g</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cdc6fb1a-f120-47d7-8dc8-b18ad2b4d717.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Alho Desidratado Granulado Da Terrinha 20g</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a84ee463-78ee-4021-abc1-f8108a5a8908.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Colorifico Da Terrinha 500g</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3e400676-80d7-442c-ba30-50cfd92f3e5a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Cravo Da India Da Terrinha 10g</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>R$ 9,69</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/114cd2ae-5717-4b26-99ad-15b0816d73f8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Tempero Baiano Quero 40g</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05ee8c8d-8029-4bfc-b6b8-99ba7b414b36.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Coentro Em Pó Da Terrinha 18g</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f908d36-f45f-4f52-8bbd-61fa858b64eb.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Tempero Santo Tempero 30gr Pimenta Rosa</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>R$ 9,49</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7c565a6-2c5b-428c-84bf-a5818b207dee.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Alho Granulado Quero 30g</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>R$ 7,49</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53791bc0-90d6-4def-9d06-9eb46b8420f8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Bicarbonato De Sódio Quero 80g</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c650d28b-0fce-4047-94c2-1c02eb8e63aa.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Erva Doce Da Terrinha 15g</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4fc8a52c-d067-455f-9136-a97b6a67267b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Tempero Para Hamburguer Heinz 80g</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8371c43f-bf51-419f-ae26-1e239aae59a5.jpg</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7898635644880</t>
         </is>
       </c>
     </row>
